--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H2">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.004310666666666667</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N2">
-        <v>0.012932</v>
+        <v>0.1831</v>
       </c>
       <c r="O2">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P2">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q2">
-        <v>0.006111920403111111</v>
+        <v>0.1891766414222222</v>
       </c>
       <c r="R2">
-        <v>0.055007283628</v>
+        <v>1.7025897728</v>
       </c>
       <c r="S2">
-        <v>0.007498621370712877</v>
+        <v>0.05625706953953707</v>
       </c>
       <c r="T2">
-        <v>0.007498621370712877</v>
+        <v>0.05625706953953707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H3">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06103333333333334</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N3">
-        <v>0.1831</v>
+        <v>0.69124</v>
       </c>
       <c r="O3">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P3">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q3">
-        <v>0.08653670165555556</v>
+        <v>0.7141805659022222</v>
       </c>
       <c r="R3">
-        <v>0.7788303149000001</v>
+        <v>6.42762509312</v>
       </c>
       <c r="S3">
-        <v>0.1061705515757445</v>
+        <v>0.2123819593037117</v>
       </c>
       <c r="T3">
-        <v>0.1061705515757445</v>
+        <v>0.2123819593037117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.417859666666667</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H4">
-        <v>4.253579</v>
+        <v>18.569678</v>
       </c>
       <c r="I4">
-        <v>0.1472651073415806</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J4">
-        <v>0.1472651073415806</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.019313</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N4">
-        <v>0.057939</v>
+        <v>0.1831</v>
       </c>
       <c r="O4">
-        <v>0.2281323458190108</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P4">
-        <v>0.2281323458190108</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q4">
-        <v>0.02738312374233334</v>
+        <v>0.3777897824222222</v>
       </c>
       <c r="R4">
-        <v>0.246448113681</v>
+        <v>3.4001080418</v>
       </c>
       <c r="S4">
-        <v>0.03359593439512321</v>
+        <v>0.1123465661578076</v>
       </c>
       <c r="T4">
-        <v>0.03359593439512321</v>
+        <v>0.1123465661578076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H5">
         <v>18.569678</v>
       </c>
       <c r="I5">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J5">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004310666666666667</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N5">
-        <v>0.012932</v>
+        <v>0.69124</v>
       </c>
       <c r="O5">
-        <v>0.0509191994361561</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P5">
-        <v>0.0509191994361561</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q5">
-        <v>0.02668256398844445</v>
+        <v>1.426233802302222</v>
       </c>
       <c r="R5">
-        <v>0.240143075896</v>
+        <v>12.83610422072</v>
       </c>
       <c r="S5">
-        <v>0.03273642838138349</v>
+        <v>0.4241312965096828</v>
       </c>
       <c r="T5">
-        <v>0.03273642838138349</v>
+        <v>0.4241312965096829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.189892666666668</v>
+        <v>1.888584</v>
       </c>
       <c r="H6">
-        <v>18.569678</v>
+        <v>5.665752</v>
       </c>
       <c r="I6">
-        <v>0.6429093297593833</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J6">
-        <v>0.6429093297593833</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,27 +809,27 @@
         <v>0.1831</v>
       </c>
       <c r="O6">
-        <v>0.7209484547448332</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P6">
-        <v>0.7209484547448332</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q6">
-        <v>0.3777897824222223</v>
+        <v>0.1152665768</v>
       </c>
       <c r="R6">
-        <v>3.400108041800001</v>
+        <v>1.0373991912</v>
       </c>
       <c r="S6">
-        <v>0.4635044878310638</v>
+        <v>0.03427780395016709</v>
       </c>
       <c r="T6">
-        <v>0.4635044878310638</v>
+        <v>0.03427780395016709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.189892666666668</v>
+        <v>1.888584</v>
       </c>
       <c r="H7">
-        <v>18.569678</v>
+        <v>5.665752</v>
       </c>
       <c r="I7">
-        <v>0.6429093297593833</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J7">
-        <v>0.6429093297593833</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +865,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.019313</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N7">
-        <v>0.057939</v>
+        <v>0.69124</v>
       </c>
       <c r="O7">
-        <v>0.2281323458190108</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P7">
-        <v>0.2281323458190108</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q7">
-        <v>0.1195453970713334</v>
+        <v>0.43515493472</v>
       </c>
       <c r="R7">
-        <v>1.075908573642</v>
+        <v>3.91639441248</v>
       </c>
       <c r="S7">
-        <v>0.1466684135469361</v>
+        <v>0.1294057302158028</v>
       </c>
       <c r="T7">
-        <v>0.1466684135469361</v>
+        <v>0.1294057302158028</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.008073333333333</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H8">
-        <v>3.02422</v>
+        <v>1.079944</v>
       </c>
       <c r="I8">
-        <v>0.1047029061702051</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J8">
-        <v>0.1047029061702051</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.004310666666666667</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N8">
-        <v>0.012932</v>
+        <v>0.1831</v>
       </c>
       <c r="O8">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P8">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q8">
-        <v>0.004345468115555555</v>
+        <v>0.02197086071111111</v>
       </c>
       <c r="R8">
-        <v>0.03910921304</v>
+        <v>0.1977377464</v>
       </c>
       <c r="S8">
-        <v>0.005331388160825812</v>
+        <v>0.006533662029181517</v>
       </c>
       <c r="T8">
-        <v>0.005331388160825812</v>
+        <v>0.006533662029181518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,303 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.008073333333333</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H9">
-        <v>3.02422</v>
+        <v>1.079944</v>
       </c>
       <c r="I9">
-        <v>0.1047029061702051</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J9">
-        <v>0.1047029061702051</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06103333333333334</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N9">
-        <v>0.1831</v>
+        <v>0.69124</v>
       </c>
       <c r="O9">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P9">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q9">
-        <v>0.06152607577777778</v>
+        <v>0.08294449895111111</v>
       </c>
       <c r="R9">
-        <v>0.5537346820000001</v>
+        <v>0.74650049056</v>
       </c>
       <c r="S9">
-        <v>0.07548539841070262</v>
+        <v>0.02466591229410941</v>
       </c>
       <c r="T9">
-        <v>0.07548539841070262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.008073333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.02422</v>
-      </c>
-      <c r="I10">
-        <v>0.1047029061702051</v>
-      </c>
-      <c r="J10">
-        <v>0.1047029061702051</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.019313</v>
-      </c>
-      <c r="N10">
-        <v>0.057939</v>
-      </c>
-      <c r="O10">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="P10">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="Q10">
-        <v>0.01946892028666667</v>
-      </c>
-      <c r="R10">
-        <v>0.17522028258</v>
-      </c>
-      <c r="S10">
-        <v>0.02388611959867668</v>
-      </c>
-      <c r="T10">
-        <v>0.02388611959867667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.012114666666667</v>
-      </c>
-      <c r="H11">
-        <v>3.036344</v>
-      </c>
-      <c r="I11">
-        <v>0.105122656728831</v>
-      </c>
-      <c r="J11">
-        <v>0.105122656728831</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.004310666666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.012932</v>
-      </c>
-      <c r="O11">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="P11">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="Q11">
-        <v>0.004362888956444445</v>
-      </c>
-      <c r="R11">
-        <v>0.039266000608</v>
-      </c>
-      <c r="S11">
-        <v>0.005352761523233922</v>
-      </c>
-      <c r="T11">
-        <v>0.005352761523233922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.012114666666667</v>
-      </c>
-      <c r="H12">
-        <v>3.036344</v>
-      </c>
-      <c r="I12">
-        <v>0.105122656728831</v>
-      </c>
-      <c r="J12">
-        <v>0.105122656728831</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.06103333333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.1831</v>
-      </c>
-      <c r="O12">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="P12">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="Q12">
-        <v>0.06177273182222223</v>
-      </c>
-      <c r="R12">
-        <v>0.5559545864000001</v>
-      </c>
-      <c r="S12">
-        <v>0.07578801692732225</v>
-      </c>
-      <c r="T12">
-        <v>0.07578801692732225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.012114666666667</v>
-      </c>
-      <c r="H13">
-        <v>3.036344</v>
-      </c>
-      <c r="I13">
-        <v>0.105122656728831</v>
-      </c>
-      <c r="J13">
-        <v>0.105122656728831</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.019313</v>
-      </c>
-      <c r="N13">
-        <v>0.057939</v>
-      </c>
-      <c r="O13">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="P13">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="Q13">
-        <v>0.01954697055733334</v>
-      </c>
-      <c r="R13">
-        <v>0.175922735016</v>
-      </c>
-      <c r="S13">
-        <v>0.02398187827827484</v>
-      </c>
-      <c r="T13">
-        <v>0.02398187827827484</v>
+        <v>0.02466591229410941</v>
       </c>
     </row>
   </sheetData>
